--- a/data/trans_orig/Q17F_D_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q17F_D_R-Edad-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,09; 9,83</t>
+          <t>3,02; 9,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,34; 10,03</t>
+          <t>2,1; 10,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,03; 13,54</t>
+          <t>2,86; 12,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 7,67</t>
+          <t>0,99; 7,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,72; 7,99</t>
+          <t>1,77; 7,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,83; 10,19</t>
+          <t>3,85; 9,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,6; 63,82</t>
+          <t>9,98; 72,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,62; 34,94</t>
+          <t>8,89; 34,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,66; 6,86</t>
+          <t>2,62; 6,73</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,53; 8,02</t>
+          <t>3,75; 8,16</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,26; 44,07</t>
+          <t>8,5; 45,02</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,31; 24,62</t>
+          <t>6,59; 23,65</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,93; 13,15</t>
+          <t>4,23; 12,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,49; 9,27</t>
+          <t>3,33; 10,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 18,27</t>
+          <t>3,59; 17,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,69; 38,74</t>
+          <t>6,61; 34,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,64; 11,22</t>
+          <t>4,68; 10,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,57; 17,27</t>
+          <t>5,33; 17,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,59; 19,67</t>
+          <t>6,33; 18,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,76; 14,21</t>
+          <t>4,61; 14,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,96; 10,07</t>
+          <t>5,0; 9,97</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,42; 13,25</t>
+          <t>5,57; 13,39</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,18; 15,08</t>
+          <t>5,9; 14,59</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,68; 17,29</t>
+          <t>5,77; 18,07</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,44; 16,3</t>
+          <t>5,64; 16,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 11,21</t>
+          <t>4,4; 11,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,25; 12,55</t>
+          <t>5,2; 12,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,89; 24,69</t>
+          <t>8,65; 23,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,94; 27,96</t>
+          <t>9,84; 26,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,5; 19,7</t>
+          <t>6,84; 18,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,08; 39,19</t>
+          <t>9,7; 42,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,47; 42,74</t>
+          <t>17,23; 44,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,23; 20,1</t>
+          <t>9,4; 20,95</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,36; 13,41</t>
+          <t>6,55; 14,46</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,79; 24,84</t>
+          <t>8,38; 22,43</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,58; 33,47</t>
+          <t>15,69; 33,23</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,22; 13,99</t>
+          <t>5,05; 13,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,86; 22,61</t>
+          <t>7,87; 22,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,24; 14,48</t>
+          <t>4,56; 13,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,25; 65,49</t>
+          <t>23,18; 69,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,93; 19,3</t>
+          <t>6,92; 18,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,04; 12,83</t>
+          <t>6,06; 13,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,26; 21,66</t>
+          <t>7,24; 22,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,11; 36,74</t>
+          <t>19,48; 35,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,96; 15,11</t>
+          <t>7,45; 15,75</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,59; 14,42</t>
+          <t>7,44; 14,37</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,76; 15,09</t>
+          <t>6,79; 15,35</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,51; 43,96</t>
+          <t>23,42; 43,74</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,41; 16,83</t>
+          <t>7,51; 16,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,09; 20,43</t>
+          <t>7,78; 19,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,25; 24,01</t>
+          <t>8,07; 22,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19,44; 51,85</t>
+          <t>19,56; 54,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,43; 18,95</t>
+          <t>7,42; 19,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,11; 14,76</t>
+          <t>6,31; 15,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,73; 19,16</t>
+          <t>7,73; 19,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,28; 39,47</t>
+          <t>22,06; 41,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,27; 15,8</t>
+          <t>8,29; 15,9</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,25; 15,04</t>
+          <t>7,78; 14,88</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,91; 17,69</t>
+          <t>8,9; 17,73</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>22,26; 40,8</t>
+          <t>23,21; 40,71</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,82; 35,01</t>
+          <t>10,74; 35,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,59; 24,34</t>
+          <t>10,09; 22,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,68; 23,98</t>
+          <t>8,68; 24,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,43; 40,1</t>
+          <t>17,93; 40,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,33; 11,13</t>
+          <t>4,25; 11,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,2; 25,88</t>
+          <t>8,02; 24,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,1; 20,56</t>
+          <t>9,18; 20,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,6; 30,7</t>
+          <t>15,18; 32,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,05; 21,58</t>
+          <t>8,13; 20,0</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,36; 20,56</t>
+          <t>10,54; 22,32</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>10,24; 19,58</t>
+          <t>10,24; 18,91</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>18,26; 32,58</t>
+          <t>17,91; 30,54</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,97; 15,48</t>
+          <t>2,88; 14,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,9; 11,14</t>
+          <t>4,01; 11,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,46; 18,81</t>
+          <t>6,37; 18,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,26; 27,53</t>
+          <t>12,18; 27,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,32; 10,7</t>
+          <t>3,16; 10,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,88; 19,08</t>
+          <t>6,11; 19,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,5; 21,4</t>
+          <t>7,54; 21,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,22; 27,35</t>
+          <t>12,39; 27,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,62; 9,44</t>
+          <t>3,46; 9,28</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6,02; 14,13</t>
+          <t>6,15; 15,25</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,15; 17,97</t>
+          <t>8,22; 18,29</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>14,03; 23,95</t>
+          <t>13,86; 23,7</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,24; 15,04</t>
+          <t>8,2; 14,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,18; 12,2</t>
+          <t>8,15; 12,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,91; 12,55</t>
+          <t>8,15; 12,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>19,26; 31,01</t>
+          <t>19,03; 31,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,57; 11,53</t>
+          <t>7,54; 11,44</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,17; 12,7</t>
+          <t>8,07; 12,18</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,97; 17,96</t>
+          <t>11,15; 18,26</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>16,56; 24,49</t>
+          <t>16,83; 24,8</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,13; 11,58</t>
+          <t>8,27; 11,49</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8,67; 11,61</t>
+          <t>8,66; 11,82</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>10,25; 14,47</t>
+          <t>10,45; 14,83</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>18,53; 25,53</t>
+          <t>18,76; 26,01</t>
         </is>
       </c>
     </row>
